--- a/myntra_output_one.xlsx
+++ b/myntra_output_one.xlsx
@@ -448,12 +448,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/tshirts/adidas+originals/adidas-originals-women-typography-printed-v-neck-relaxed-fit-t-shirt/35713564/buy</t>
+          <t>https://www.myntra.com/saree/tikhi-imli/tikhi-imli-embellished-embroidered-net-saree/30711854/buy?utm_source=social_share_pdp&amp;utm_medium=deeplink&amp;utm_campaign=social_share_pdp_deeplink</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Seller: ADIDAS INDIA MARKETING PRIVATE LIMITED</t>
+          <t>Seller: Brand Baaja Bride - SJIT</t>
         </is>
       </c>
     </row>

--- a/myntra_output_one.xlsx
+++ b/myntra_output_one.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,21 +441,53 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Seller Name</t>
+          <t>SellerNames</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SellerIDs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Delivery</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.myntra.com/saree/tikhi-imli/tikhi-imli-embellished-embroidered-net-saree/30711854/buy?utm_source=social_share_pdp&amp;utm_medium=deeplink&amp;utm_campaign=social_share_pdp_deeplink</t>
+          <t>https://www.myntra.com/track-pants/cult/cult-men-train-in-train-out-moisture-wicking-premium-trackpants/29417146/buy</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Seller: Brand Baaja Bride - SJIT</t>
-        </is>
-      </c>
+          <t>Seller: CULTSPORT PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fri, Oct 03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
